--- a/Duilib源码解析.xlsx
+++ b/Duilib源码解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="24525" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Duilib整体框架" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="885">
   <si>
     <t>Duilib整体框架</t>
   </si>
@@ -247,13 +247,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1.xml的使用：
   &lt;VerticalLayout virtualwnd="pageBase"&gt;
       &lt;</t>
@@ -5881,6 +5874,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.实现透明异形窗体：
   (1)</t>
     </r>
@@ -6567,6 +6567,9 @@
       </rPr>
       <t>：vertical或horizontal</t>
     </r>
+  </si>
+  <si>
+    <t>说明：区别于TabLayout,切换TAB时，有动画效果</t>
   </si>
   <si>
     <t>UIChildLayout.h/.cpp</t>
@@ -10938,6 +10941,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.一般情况不考虑使用绝对布局，但有时候又有这样的需求，比如：</t>
     </r>
     <r>
@@ -11821,8 +11831,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -11895,16 +11905,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11918,22 +11928,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11955,18 +11971,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11979,7 +11996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11993,13 +12010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -12008,8 +12018,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12025,15 +12036,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12162,19 +12172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12192,13 +12202,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12210,19 +12274,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12234,85 +12328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12324,19 +12346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12445,6 +12455,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -12463,36 +12482,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -12513,6 +12503,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12527,6 +12528,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12535,10 +12545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12547,31 +12557,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12580,13 +12596,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -12595,82 +12605,82 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12894,6 +12904,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13019,9 +13032,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -14025,7 +14035,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
@@ -14077,7 +14087,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14151,16 +14161,16 @@
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A4" s="72">
+      <c r="A4" s="73">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="61" t="s">
@@ -14201,7 +14211,7 @@
       <c r="E7" s="131"/>
     </row>
     <row r="8" ht="330" customHeight="1" spans="1:5">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="118"/>
@@ -14252,10 +14262,10 @@
   <sheetPr/>
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40:D43"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14289,10 +14299,10 @@
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="128" customHeight="1" spans="1:6">
-      <c r="A2" s="72">
+      <c r="A2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -14329,10 +14339,10 @@
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="84" customHeight="1" spans="1:6">
-      <c r="A4" s="72">
+      <c r="A4" s="73">
         <v>3</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -14367,34 +14377,34 @@
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A6" s="88">
+      <c r="A6" s="89">
         <v>5</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="91" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" ht="75" customHeight="1" spans="1:6">
-      <c r="A7" s="91"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
     </row>
     <row r="8" ht="156" customHeight="1" spans="1:6">
       <c r="A8" s="71">
@@ -14417,34 +14427,34 @@
       </c>
     </row>
     <row r="9" s="15" customFormat="1" ht="73" customHeight="1" spans="1:6">
-      <c r="A9" s="88">
+      <c r="A9" s="89">
         <v>7</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="94" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="91" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="1" ht="75" customHeight="1" spans="1:6">
-      <c r="A10" s="91"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
     </row>
     <row r="11" ht="88" customHeight="1" spans="1:6">
       <c r="A11" s="71">
@@ -14456,33 +14466,33 @@
       <c r="C11" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="97" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" ht="137" customHeight="1" spans="1:6">
-      <c r="A12" s="97">
+      <c r="A12" s="98">
         <v>9</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
     </row>
     <row r="13" s="15" customFormat="1" ht="64" customHeight="1" spans="1:7">
-      <c r="A13" s="88">
+      <c r="A13" s="89">
         <v>10</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="73" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="61" t="s">
@@ -14497,36 +14507,36 @@
       <c r="F13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" s="15" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A14" s="91"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="74" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
-      <c r="G14" s="73"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:7">
       <c r="A15" s="71">
         <v>11</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="103" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="49"/>
@@ -14535,26 +14545,26 @@
       <c r="A16" s="71">
         <v>12</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="49"/>
     </row>
     <row r="17" s="15" customFormat="1" ht="147" customHeight="1" spans="1:7">
-      <c r="A17" s="72">
+      <c r="A17" s="73">
         <v>13</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="74" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="108" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="59" t="s">
@@ -14563,7 +14573,7 @@
       <c r="F17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="73"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" ht="147" customHeight="1" spans="1:7">
       <c r="A18" s="71">
@@ -14578,19 +14588,19 @@
       <c r="D18" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="108"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" s="15" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A19" s="72">
+      <c r="A19" s="73">
         <v>15</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="74" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="61" t="s">
@@ -14605,7 +14615,7 @@
       <c r="F19" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="109"/>
+      <c r="G19" s="110"/>
     </row>
     <row r="20" ht="190" customHeight="1" spans="1:6">
       <c r="A20" s="71">
@@ -14617,7 +14627,7 @@
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="57" t="s">
@@ -14628,10 +14638,10 @@
       </c>
     </row>
     <row r="21" s="15" customFormat="1" ht="71" customHeight="1" spans="1:6">
-      <c r="A21" s="72">
+      <c r="A21" s="73">
         <v>17</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="74" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="61" t="s">
@@ -14657,7 +14667,7 @@
       <c r="C22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="84" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="57" t="s">
@@ -14668,10 +14678,10 @@
       </c>
     </row>
     <row r="23" s="15" customFormat="1" ht="113" customHeight="1" spans="1:6">
-      <c r="A23" s="72">
+      <c r="A23" s="73">
         <v>19</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="74" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -14680,10 +14690,10 @@
       <c r="D23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="83" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14697,7 +14707,7 @@
       <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="96" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="57" t="s">
@@ -14708,34 +14718,34 @@
       </c>
     </row>
     <row r="25" s="15" customFormat="1" ht="142" customHeight="1" spans="1:6">
-      <c r="A25" s="110">
+      <c r="A25" s="111">
         <v>21</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="94" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="88" t="s">
+      <c r="E25" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="89" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" s="15" customFormat="1" ht="117" customHeight="1" spans="1:6">
-      <c r="A26" s="112"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
     </row>
     <row r="27" ht="63" customHeight="1" spans="1:6">
       <c r="A27" s="71">
@@ -14747,7 +14757,7 @@
       <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="72" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="57" t="s">
@@ -14758,16 +14768,16 @@
       </c>
     </row>
     <row r="28" s="15" customFormat="1" ht="111" customHeight="1" spans="1:6">
-      <c r="A28" s="72">
+      <c r="A28" s="73">
         <v>23</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="73" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="59" t="s">
@@ -14778,112 +14788,112 @@
       </c>
     </row>
     <row r="29" ht="54" customHeight="1" spans="1:6">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="84"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
     </row>
     <row r="30" ht="33" customHeight="1" spans="1:6">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
     </row>
     <row r="31" ht="34" customHeight="1" spans="1:6">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
     </row>
     <row r="32" ht="75" customHeight="1" spans="1:6">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="84"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
     </row>
     <row r="33" ht="48" customHeight="1" spans="1:6">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
     </row>
     <row r="34" ht="72" customHeight="1" spans="1:6">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
     </row>
     <row r="35" ht="61" customHeight="1" spans="1:6">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
     </row>
     <row r="36" ht="60" customHeight="1" spans="1:6">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="84"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
     </row>
     <row r="37" ht="57" customHeight="1" spans="1:6">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="84"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
     </row>
     <row r="38" ht="36" customHeight="1" spans="1:6">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="84"/>
+      <c r="D38" s="85"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
     </row>
     <row r="39" ht="117" customHeight="1" spans="1:6">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
     </row>
@@ -14897,7 +14907,7 @@
       <c r="C40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="84" t="s">
         <v>104</v>
       </c>
       <c r="E40" s="118" t="s">
@@ -14938,34 +14948,34 @@
       <c r="F43" s="71"/>
     </row>
     <row r="44" s="15" customFormat="1" ht="86" customHeight="1" spans="1:6">
-      <c r="A44" s="72">
+      <c r="A44" s="73">
         <v>25</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="73" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="107" t="s">
+      <c r="D44" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="107" t="s">
+      <c r="E44" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="83" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" s="15" customFormat="1" ht="77" customHeight="1" spans="1:6">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="82"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="83"/>
     </row>
     <row r="46" ht="54" customHeight="1" spans="1:6">
       <c r="A46" s="71">
@@ -14977,7 +14987,7 @@
       <c r="C46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="84" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="71" t="s">
@@ -14993,27 +15003,27 @@
       <c r="C47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="83"/>
+      <c r="D47" s="84"/>
       <c r="E47" s="71"/>
       <c r="F47" s="71"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="1:6">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="83"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="71"/>
       <c r="F48" s="71"/>
     </row>
     <row r="49" ht="45" customHeight="1" spans="1:6">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="83"/>
+      <c r="D49" s="84"/>
       <c r="E49" s="71"/>
       <c r="F49" s="71"/>
     </row>
@@ -15023,30 +15033,30 @@
       <c r="C50" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="83"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71"/>
     </row>
     <row r="51" s="15" customFormat="1" ht="165" customHeight="1" spans="1:6">
-      <c r="A51" s="72">
+      <c r="A51" s="73">
         <v>27</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="74" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="85" t="s">
         <v>124</v>
       </c>
       <c r="F51" s="120"/>
     </row>
     <row r="52" s="15" customFormat="1" ht="168" customHeight="1" spans="1:6">
-      <c r="A52" s="88">
+      <c r="A52" s="89">
         <v>28</v>
       </c>
       <c r="B52" s="121" t="s">
@@ -15084,10 +15094,10 @@
       <c r="H53" s="49"/>
     </row>
     <row r="54" s="15" customFormat="1" ht="62" customHeight="1" spans="1:8">
-      <c r="A54" s="72">
+      <c r="A54" s="73">
         <v>30</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="74" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="61" t="s">
@@ -15102,8 +15112,8 @@
       <c r="F54" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
     </row>
     <row r="55" ht="99" customHeight="1" spans="1:8">
       <c r="A55" s="71">
@@ -15112,7 +15122,7 @@
       <c r="B55" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="86" t="s">
         <v>135</v>
       </c>
       <c r="D55" s="118" t="s">
@@ -15127,7 +15137,7 @@
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
     </row>
-    <row r="56" s="86" customFormat="1"/>
+    <row r="56" s="87" customFormat="1"/>
     <row r="57" ht="24" customHeight="1" spans="1:6">
       <c r="A57" s="5" t="s">
         <v>137</v>
@@ -15138,7 +15148,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" s="87" customFormat="1" ht="409" customHeight="1" spans="1:6">
+    <row r="58" s="88" customFormat="1" ht="409" customHeight="1" spans="1:6">
       <c r="A58" s="125"/>
       <c r="B58" s="125"/>
       <c r="C58" s="125"/>
@@ -15146,7 +15156,7 @@
       <c r="E58" s="125"/>
       <c r="F58" s="125"/>
     </row>
-    <row r="59" s="87" customFormat="1" spans="1:6">
+    <row r="59" s="88" customFormat="1" spans="1:6">
       <c r="A59" s="125"/>
       <c r="B59" s="125"/>
       <c r="C59" s="125"/>
@@ -15154,7 +15164,7 @@
       <c r="E59" s="125"/>
       <c r="F59" s="125"/>
     </row>
-    <row r="60" s="87" customFormat="1" spans="1:6">
+    <row r="60" s="88" customFormat="1" spans="1:6">
       <c r="A60" s="125"/>
       <c r="B60" s="125"/>
       <c r="C60" s="125"/>
@@ -15162,7 +15172,7 @@
       <c r="E60" s="125"/>
       <c r="F60" s="125"/>
     </row>
-    <row r="61" s="87" customFormat="1" spans="1:6">
+    <row r="61" s="88" customFormat="1" spans="1:6">
       <c r="A61" s="125"/>
       <c r="B61" s="125"/>
       <c r="C61" s="125"/>
@@ -15170,7 +15180,7 @@
       <c r="E61" s="125"/>
       <c r="F61" s="125"/>
     </row>
-    <row r="62" s="87" customFormat="1" spans="1:6">
+    <row r="62" s="88" customFormat="1" spans="1:6">
       <c r="A62" s="125"/>
       <c r="B62" s="125"/>
       <c r="C62" s="125"/>
@@ -15178,7 +15188,7 @@
       <c r="E62" s="125"/>
       <c r="F62" s="125"/>
     </row>
-    <row r="63" s="87" customFormat="1" spans="1:6">
+    <row r="63" s="88" customFormat="1" spans="1:6">
       <c r="A63" s="125"/>
       <c r="B63" s="125"/>
       <c r="C63" s="125"/>
@@ -15186,7 +15196,7 @@
       <c r="E63" s="125"/>
       <c r="F63" s="125"/>
     </row>
-    <row r="64" s="87" customFormat="1" spans="1:6">
+    <row r="64" s="88" customFormat="1" spans="1:6">
       <c r="A64" s="125"/>
       <c r="B64" s="125"/>
       <c r="C64" s="125"/>
@@ -15194,7 +15204,7 @@
       <c r="E64" s="125"/>
       <c r="F64" s="125"/>
     </row>
-    <row r="65" s="87" customFormat="1" spans="1:6">
+    <row r="65" s="88" customFormat="1" spans="1:6">
       <c r="A65" s="125"/>
       <c r="B65" s="125"/>
       <c r="C65" s="125"/>
@@ -15202,7 +15212,7 @@
       <c r="E65" s="125"/>
       <c r="F65" s="125"/>
     </row>
-    <row r="66" s="87" customFormat="1" spans="1:6">
+    <row r="66" s="88" customFormat="1" spans="1:6">
       <c r="A66" s="125"/>
       <c r="B66" s="125"/>
       <c r="C66" s="125"/>
@@ -15210,7 +15220,7 @@
       <c r="E66" s="125"/>
       <c r="F66" s="125"/>
     </row>
-    <row r="67" s="87" customFormat="1" spans="1:6">
+    <row r="67" s="88" customFormat="1" spans="1:6">
       <c r="A67" s="125"/>
       <c r="B67" s="125"/>
       <c r="C67" s="125"/>
@@ -15218,7 +15228,7 @@
       <c r="E67" s="125"/>
       <c r="F67" s="125"/>
     </row>
-    <row r="68" s="87" customFormat="1" spans="1:6">
+    <row r="68" s="88" customFormat="1" spans="1:6">
       <c r="A68" s="125"/>
       <c r="B68" s="125"/>
       <c r="C68" s="125"/>
@@ -15226,7 +15236,7 @@
       <c r="E68" s="125"/>
       <c r="F68" s="125"/>
     </row>
-    <row r="69" s="87" customFormat="1" ht="26" customHeight="1" spans="1:6">
+    <row r="69" s="88" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A69" s="125"/>
       <c r="B69" s="125"/>
       <c r="C69" s="125"/>
@@ -15304,9 +15314,9 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -15360,13 +15370,13 @@
       </c>
     </row>
     <row r="3" s="15" customFormat="1" ht="87" customHeight="1" spans="1:6">
-      <c r="A3" s="72">
+      <c r="A3" s="73">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="61" t="s">
@@ -15392,7 +15402,7 @@
       <c r="D4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="84" t="s">
         <v>148</v>
       </c>
       <c r="F4" s="57" t="s">
@@ -15400,19 +15410,19 @@
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="192" customHeight="1" spans="1:6">
-      <c r="A5" s="72">
+      <c r="A5" s="73">
         <v>4</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="85" t="s">
         <v>152</v>
       </c>
       <c r="F5" s="59" t="s">
@@ -15427,7 +15437,7 @@
         <v>153</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>154</v>
       </c>
       <c r="E6" s="57" t="s">
@@ -15438,19 +15448,19 @@
       </c>
     </row>
     <row r="7" s="15" customFormat="1" ht="114" customHeight="1" spans="1:6">
-      <c r="A7" s="72">
+      <c r="A7" s="73">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="75" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F7" s="59" t="s">
@@ -15470,7 +15480,7 @@
       <c r="D8" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>162</v>
       </c>
       <c r="F8" s="57" t="s">
@@ -15478,13 +15488,13 @@
       </c>
     </row>
     <row r="9" s="15" customFormat="1" ht="62" customHeight="1" spans="1:6">
-      <c r="A9" s="72">
+      <c r="A9" s="73">
         <v>8</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="75" t="s">
         <v>164</v>
       </c>
       <c r="D9" s="61" t="s">
@@ -15504,7 +15514,7 @@
       <c r="B10" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="86" t="s">
         <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -15518,13 +15528,13 @@
       </c>
     </row>
     <row r="11" s="15" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A11" s="72">
+      <c r="A11" s="73">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="75" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="61" t="s">
@@ -15551,7 +15561,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -15594,8 +15604,8 @@
       <c r="C2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>29</v>
+      <c r="D2" s="72" t="s">
+        <v>174</v>
       </c>
       <c r="E2" s="57" t="s">
         <v>29</v>
@@ -15605,14 +15615,14 @@
       </c>
     </row>
     <row r="3" s="15" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A3" s="72">
+      <c r="A3" s="73">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="74" t="s">
+      <c r="B3" s="74" t="s">
         <v>175</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>176</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>29</v>
@@ -15629,33 +15639,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="E4" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="78" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A5" s="72">
+      <c r="A5" s="73">
         <v>4</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>180</v>
+      <c r="B5" s="74" t="s">
+        <v>181</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="78" t="s">
         <v>182</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>183</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>29</v>
@@ -15669,13 +15679,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="79" t="s">
         <v>185</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>186</v>
       </c>
       <c r="E6" s="57" t="s">
         <v>29</v>
@@ -15685,22 +15695,22 @@
       </c>
     </row>
     <row r="7" s="15" customFormat="1" ht="168" customHeight="1" spans="1:6">
-      <c r="A7" s="72">
+      <c r="A7" s="73">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>186</v>
+      <c r="B7" s="74" t="s">
+        <v>187</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="E7" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15716,9 +15726,9 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -15755,13 +15765,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" s="57" t="s">
         <v>29</v>
@@ -15775,16 +15785,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>29</v>
@@ -15795,16 +15805,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>29</v>
@@ -15815,13 +15825,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>29</v>
@@ -15835,13 +15845,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>29</v>
@@ -15855,11 +15865,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>29</v>
@@ -15873,13 +15883,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E8" s="65" t="s">
         <v>29</v>
@@ -15893,13 +15903,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E9" s="59" t="s">
         <v>29</v>
@@ -15913,16 +15923,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F10" s="65" t="s">
         <v>29</v>
@@ -15933,11 +15943,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" s="59" t="s">
         <v>29</v>
@@ -15951,11 +15961,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>29</v>
@@ -15969,11 +15979,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>29</v>
@@ -15987,13 +15997,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E14" s="65" t="s">
         <v>29</v>
@@ -16007,13 +16017,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>29</v>
@@ -16041,7 +16051,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD484"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A482" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -16055,7 +16065,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -16063,44 +16073,44 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -16108,7 +16118,7 @@
     </row>
     <row r="6" ht="18.75" spans="1:4">
       <c r="A6" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -16116,35 +16126,35 @@
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" ht="20" customHeight="1" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -16152,2990 +16162,2990 @@
     </row>
     <row r="11" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B14" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" ht="21" customHeight="1" spans="1:1">
       <c r="A16" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B20" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B42" s="17">
         <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B43" s="20">
         <v>0</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B44" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="17">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B51" s="20">
         <v>255</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B52" s="17">
         <v>255</v>
       </c>
       <c r="C52" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B58" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B59" s="20">
         <v>0</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B60" s="17">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A62" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A63" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B65" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B75" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B76" s="20">
         <v>0</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B78" s="20">
         <v>0</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B80" s="20">
         <v>0</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B81" s="17">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B85" s="17">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B86" s="20">
         <v>0</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B87" s="17">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B88" s="20">
         <v>0</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B89" s="17">
         <v>9999</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B90" s="20">
         <v>9999</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B92" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B93" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B94" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B98" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B99" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B100" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B101" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B103" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C105" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A109" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B112" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B113" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B115" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B117" s="20">
         <v>0</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B120" s="17">
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A122" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A123" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A126" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B128" s="20">
         <v>0</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B129" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C130" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="132" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A132" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B134" s="20">
         <v>0</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B135" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A138" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A139" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="19" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B140" s="20">
         <v>1</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A143" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A144" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B145" s="20">
         <v>0</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A147" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A148" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B149" s="20">
         <v>0</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="151" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A151" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="152" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A152" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B155" s="20">
         <v>-1</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A157" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A158" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B161" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A163" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A164" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B166" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A168" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A169" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B172" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B173" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B174" s="20">
         <v>-1</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C175" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C177" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B178" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B179" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C181" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C183" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B185" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C187" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="19" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B188" s="20">
         <v>-1</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="19" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B190" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C191" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C193" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="19" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="19" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B195" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C197" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="19" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C199" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C201" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C203" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B206" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A208" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B210" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B211" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B212" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D212" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B213" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B214" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D214" s="22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B215" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B216" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B217" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B218" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B219" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B220" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C221" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D221" s="22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C222" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B223" s="20">
         <v>-1</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D224" s="22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B225" s="20">
         <v>-1</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D227" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C228" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D228" s="22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D229" s="22" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D230" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D231" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C232" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D232" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D233" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="235" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A235" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="236" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A236" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="19" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B237" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D237" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B238" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D238" s="22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="240" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A240" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="241" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A241" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B241" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D242" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D243" s="22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B244" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B245" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D245" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="19" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B246" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D246" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B247" s="17">
         <v>-1</v>
       </c>
       <c r="C247" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D247" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D248" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C249" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D249" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D250" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B251" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="19" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B252" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D252" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="31" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B253" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="254" s="11" customFormat="1" spans="1:4">
@@ -19145,49 +19155,49 @@
     </row>
     <row r="255" s="10" customFormat="1" ht="21" customHeight="1" spans="1:1">
       <c r="A255" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" s="12" customFormat="1" spans="1:4">
       <c r="A256" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B256" s="36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D256" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257" customFormat="1" spans="1:4">
       <c r="A257" s="37" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B257" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D257" s="38" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="258" customFormat="1" spans="1:4">
       <c r="A258" s="37" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B258" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D258" s="38" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" s="13" customFormat="1" spans="2:2">
@@ -19195,2565 +19205,2565 @@
     </row>
     <row r="260" s="14" customFormat="1" ht="18.75" spans="1:2">
       <c r="A260" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B260" s="40"/>
     </row>
     <row r="261" s="12" customFormat="1" spans="1:4">
       <c r="A261" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B261" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="19" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B262" s="41" t="b">
         <v>0</v>
       </c>
       <c r="C262" s="42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="19" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B263" s="41" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C263" s="42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B264" s="41">
         <v>500</v>
       </c>
       <c r="C264" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B265" s="41">
         <v>6000</v>
       </c>
       <c r="C265" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="266" ht="14" customHeight="1"/>
     <row r="267" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A267" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A268" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C270" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C272" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D272" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D273" s="22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A275" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A276" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="19" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C278" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D278" s="22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C280" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D280" s="22" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C282" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D282" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D283" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C284" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D284" s="22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="19" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D285" s="22" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C286" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D286" s="22" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="19" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D287" s="22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C288" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D288" s="22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="19" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D289" s="22" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C290" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D290" s="22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="19" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D291" s="22" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="293" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A293" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="294" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A294" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D295" s="22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B296" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D296" s="22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D297" s="22" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C298" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D298" s="22" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="19" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D299" s="22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="19" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C300" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D300" s="22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="19" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B301" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D301" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="19" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C302" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D302" s="22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="19" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D303" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="19" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C304" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="306" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A306" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="307" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A307" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B308" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D308" s="22" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B309" s="17">
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B310" s="20">
         <v>100</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D310" s="22" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B311" s="17">
         <v>0</v>
       </c>
       <c r="C311" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D311" s="22" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="31" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B312" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D312" s="32" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="19" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B313" s="41" t="b">
         <v>1</v>
       </c>
       <c r="C313" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D313" s="22" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="19" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B314" s="41"/>
       <c r="C314" s="42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D314" s="22" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="19" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B315" s="41" t="b">
         <v>1</v>
       </c>
       <c r="C315" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D315" s="22" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="317" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A317" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A318" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="19" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D319" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="19" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C320" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D320" s="22" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D321" s="22" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="19" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C322" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D322" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="19" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B323" s="20">
         <v>1</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D323" s="22" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="19" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B324" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C324" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D324" s="22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="326" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A326" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="327" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A327" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B328" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C328" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D328" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="19" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B329" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C329" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D329" s="22" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="19" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B330" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C330" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D330" s="22" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C331" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B332" s="20">
         <v>255</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C333" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D333" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D334" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C335" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D335" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D336" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C337" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D337" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D338" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C339" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="19" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D340" s="22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="342" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A342" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="343" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A343" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="19" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D344" s="22" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="19" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C345" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D345" s="22" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="19" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C346" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="19" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C347" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D347" s="22" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="19" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C348" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D348" s="22" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="19" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B349" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C349" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D349" s="22" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="19" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C350" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D350" s="22" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="19" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C351" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D351" s="22" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C352" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D352" s="22" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="19" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C353" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C354" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D354" s="22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C355" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D355" s="22" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="19" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C356" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D356" s="22" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="19" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C357" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D357" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C358" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D358" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="19" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C359" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D359" s="22" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="19" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D360" s="22" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="19" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C361" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D361" s="22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D362" s="22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="19" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C363" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D363" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D364" s="22" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="19" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B365" s="17">
         <v>8</v>
       </c>
       <c r="C365" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D365" s="22" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="19" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B366" s="20">
         <v>100</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D366" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B367" s="17">
         <v>0</v>
       </c>
       <c r="C367" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="19" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B368" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D368" s="22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="19" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B369" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C369" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D369" s="22" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="371" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A371" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="372" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A372" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B372" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D372" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B373" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D373" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C374" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D374" s="22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B375" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D375" s="22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="19" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B376" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C376" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D376" s="22" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="19" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B377" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C377" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D377" s="22" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="19" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B378" s="17">
         <v>-1</v>
       </c>
       <c r="C378" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D378" s="22" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="19" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C379" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D379" s="22" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C380" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D380" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B381" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D381" s="22" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C382" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D382" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C383" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D383" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C384" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D384" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="19" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D385" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="19" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B386" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C386" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D386" s="22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D387" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B388" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C388" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D388" s="22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="19" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C389" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D389" s="22" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C390" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D390" s="22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C391" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D391" s="22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B392" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C392" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D392" s="22" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C393" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D393" s="22" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B394" s="17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C394" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D394" s="22" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C395" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D395" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B396" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C396" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D396" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="19" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B397" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C397" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D397" s="22" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="19" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B398" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C398" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D398" s="22" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B399" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C399" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D399" s="22" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B400" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C400" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D400" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B401" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C401" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D401" s="22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="403" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A403" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="404" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A404" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B404" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="24" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B405" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C405" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="407" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A407" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="408" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A408" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B408" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C408" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B409" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C409" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D409" s="22" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B410" s="17">
         <v>0</v>
       </c>
       <c r="C410" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D410" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C411" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D411" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B412" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C412" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D412" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B413" s="20">
         <v>-1</v>
       </c>
       <c r="C413" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D413" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B414" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C414" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D414" s="22" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C415" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D415" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C416" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D416" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B417" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C417" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D417" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B418" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C418" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D418" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C419" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D419" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B420" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C420" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D420" s="22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="19" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C421" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D421" s="22" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B422" s="17">
         <v>0</v>
       </c>
       <c r="C422" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D422" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="424" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A424" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="425" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A425" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B425" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D425" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B426" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C426" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="428" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A428" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="429" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A429" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B429" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="24" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B430" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C430" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="432" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A432" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="433" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A433" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B433" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B434" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C434" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D434" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="19" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B435" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C435" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D435" s="22" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="19" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B436" s="20">
         <v>0</v>
       </c>
       <c r="C436" s="21" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D436" s="22" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B437" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C437" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D437" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C438" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D438" s="22" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B439" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C439" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D439" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="19" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C440" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D440" s="22" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="442" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A442" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="443" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A443" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D443" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C444" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D444" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B445" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C445" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D445" s="22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="19" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C446" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D446" s="22" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B447" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C447" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D447" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="19" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B448" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C448" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D448" s="22" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="19" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B449" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C449" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D449" s="22" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C450" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D450" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="19" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B451" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C451" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D451" s="22" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B452" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C452" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D452" s="22" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C453" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D453" s="22" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C454" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D454" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="19" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B455" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C455" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D455" s="22" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="457" s="10" customFormat="1" ht="18.75" spans="1:1">
       <c r="A457" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="458" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A458" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D458" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="19" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C459" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D459" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B460" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C460" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D460" s="22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="19" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B461" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C461" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="19" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B462" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C462" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D462" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="19" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B463" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C463" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="19" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B464" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C464" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D464" s="22" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="19" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B465" s="20" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C465" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B466" s="43" t="b">
         <v>0</v>
       </c>
       <c r="C466" s="44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B467" s="20">
         <v>30</v>
       </c>
       <c r="C467" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D467" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="469" ht="42" customHeight="1" spans="1:4">
       <c r="A469" s="45" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B469" s="10"/>
       <c r="C469" s="10"/>
@@ -21761,159 +21771,159 @@
     </row>
     <row r="470" ht="14.25" spans="1:4">
       <c r="A470" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B470" s="47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C470" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D470" s="46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="19" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B471" s="41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C471" s="42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D471" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="19" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B472" s="48"/>
       <c r="C472" s="49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D472" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="19" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B473" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C473" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D473" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B474" s="48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C474" s="49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D474" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B475" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C475" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D475" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="19" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B476" s="48" t="b">
         <v>0</v>
       </c>
       <c r="C476" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D476" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="477" ht="31" customHeight="1" spans="1:4">
       <c r="A477" s="19" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B477" s="41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C477" s="42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D477" s="50" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="19" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B478" s="51" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C478" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D478" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B479" s="41" t="b">
         <v>0</v>
       </c>
       <c r="C479" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D479" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="19" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B480" s="51" t="b">
         <v>0</v>
       </c>
       <c r="C480" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D480" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="482" ht="385" customHeight="1" spans="1:4">
       <c r="A482" s="52" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B482" s="53"/>
       <c r="C482" s="53"/>
@@ -21924,7 +21934,7 @@
     </row>
     <row r="484" s="16" customFormat="1" ht="261" customHeight="1" spans="1:1">
       <c r="A484" s="55" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -21981,8 +21991,8 @@
   <sheetPr/>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21992,52 +22002,52 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" ht="133" customHeight="1" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" ht="141" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" ht="56" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" ht="149" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" ht="73" customHeight="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" ht="29" customHeight="1"/>
@@ -22053,8 +22063,8 @@
   <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -22064,42 +22074,42 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="31" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="29" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" ht="261" customHeight="1" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" ht="168" customHeight="1" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
